--- a/PROJETO1_DIO.xlsx
+++ b/PROJETO1_DIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Micro\Desktop\DIO\Projetos\PROJETO 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB56E622-66CA-44D3-915E-9FB6F534B22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C236A7C-C51A-456E-9288-BC748A45D947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="14400" windowHeight="8235" xr2:uid="{2D496A48-A975-41C3-8931-8CC9EEB897A4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" tabRatio="0" xr2:uid="{2D496A48-A975-41C3-8931-8CC9EEB897A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ferramenta" sheetId="1" r:id="rId1"/>
@@ -1100,7 +1100,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{022EFE11-3147-44E0-8780-0BF11A090390}">
   <dimension ref="A10:H66"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A7" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
